--- a/modelo_lógico_datos_desafio_caso_2.xlsx
+++ b/modelo_lógico_datos_desafio_caso_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ariel/Desktop/desafiolatam/bases_de_datos_introducción/normalizacion_de_datos/modelos_desafio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DA525D-6AE5-D347-9F2F-F9E3BCF47CBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6DCB26-3D57-F34F-B379-20BAA518F9CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="10500" xr2:uid="{8EF448B2-BB9E-9141-B6BF-BD7A6BA49018}"/>
+    <workbookView xWindow="-27300" yWindow="-3720" windowWidth="25040" windowHeight="10500" xr2:uid="{8EF448B2-BB9E-9141-B6BF-BD7A6BA49018}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>1          0..n</t>
   </si>
@@ -33,9 +33,6 @@
     <t>id SERIAL [PK]</t>
   </si>
   <si>
-    <t>rut INT [PK]</t>
-  </si>
-  <si>
     <t>nombre VARCHAR(40)</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>Alumnos</t>
   </si>
   <si>
-    <t>id_curso [FK] NOT NULL</t>
-  </si>
-  <si>
     <t>Prueba</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>calificación  INT</t>
   </si>
   <si>
-    <t>profesor_calificador [FK]</t>
-  </si>
-  <si>
     <t>0..n         1</t>
   </si>
   <si>
@@ -70,6 +61,24 @@
   </si>
   <si>
     <t xml:space="preserve">id SERIAL </t>
+  </si>
+  <si>
+    <t>0..n           1</t>
+  </si>
+  <si>
+    <t>rut VARCHAR(10) [PK]</t>
+  </si>
+  <si>
+    <t>id_prueba INT NOT NULL [FK]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_curso INT NOT NULL [FK] </t>
+  </si>
+  <si>
+    <t>profesor_calificador varchar(40)[FK]</t>
+  </si>
+  <si>
+    <t>departamento INT [FK]</t>
   </si>
 </sst>
 </file>
@@ -105,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -176,11 +185,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -189,6 +218,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +538,7 @@
   <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,10 +548,10 @@
     <col min="3" max="3" width="10.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2"/>
     <col min="8" max="8" width="25.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="2"/>
     <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
@@ -539,21 +571,21 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
+      <c r="H4" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -564,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>0</v>
@@ -573,59 +605,66 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="6"/>
       <c r="J5" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="8"/>
       <c r="J6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="4" t="s">
-        <v>4</v>
+      <c r="H7" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="4" t="s">
-        <v>7</v>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
